--- a/Tops Data Analytics/Asssignment/VLOOKUP - Approximate Match.xlsx
+++ b/Tops Data Analytics/Asssignment/VLOOKUP - Approximate Match.xlsx
@@ -434,7 +434,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
